--- a/References.xlsx
+++ b/References.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi\Thesis\Thesis\Thesis-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848f6c63bb152c52/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCC1D4C-93CF-449D-960E-F3688B3B6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462CC7B0-F9A9-47E6-A90A-FB67DC470CBC}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Research Papers" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="People to Interview" sheetId="3" r:id="rId3"/>
+    <sheet name="Problem" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$E$90</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
   <si>
     <t>Recurrent Neural Networks for Edge Intelligence: A Survey</t>
   </si>
@@ -224,9 +230,6 @@
     <t>Motif Transformer: Generating Music With Motifs</t>
   </si>
   <si>
-    <t>Theme Transformer: Symbolic Music Generation with Theme-Conditioned Transformer</t>
-  </si>
-  <si>
     <t>Calliope -- A Polyphonic Music Transformer</t>
   </si>
   <si>
@@ -309,13 +312,307 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitzed </t>
+  </si>
+  <si>
+    <t>Midi/Audio</t>
+  </si>
+  <si>
+    <t>Polyphonic</t>
+  </si>
+  <si>
+    <t>Clean?</t>
+  </si>
+  <si>
+    <t>Language model able to understand the contet of a sentence better than complex neural methods (LSTM, CNN, GRU) v Vanilla Transformer</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Transformer is better than RNN</t>
+  </si>
+  <si>
+    <t>MusicVAE is created by introducing hiercrchical to the recurrent VAE model to avoid "posterior collapse" problem. It improves modeling of sequences with long-term structure. They compared VAE (flat) to Music VAE (hierarchical) and found an improvement but didn't compare against other models.</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>Lakh MIDI Dataset</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Multitrack</t>
+  </si>
+  <si>
+    <t>MIDI</t>
+  </si>
+  <si>
+    <t>Nsynth</t>
+  </si>
+  <si>
+    <t>Mutitrack</t>
+  </si>
+  <si>
+    <t>WAV</t>
+  </si>
+  <si>
+    <t>JSB-Chorales</t>
+  </si>
+  <si>
+    <t>Harmonixed chorale</t>
+  </si>
+  <si>
+    <t>Groove MIDI</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Folk tunes</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>https://magenta.tensorflow.org/datasets/nsynth</t>
+  </si>
+  <si>
+    <t>https://colinraffel.com/pro jects/lmd/</t>
+  </si>
+  <si>
+    <t>http://www.jsbchorales.net/index.shtml</t>
+  </si>
+  <si>
+    <t>https://magenta.tensorflow.org/datasets/groove</t>
+  </si>
+  <si>
+    <t>http://abc.sourceforge.net/NMD/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JSB-Chorales offers three temporal resolutions: quarter, eighth and sixteenth. These </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’quantizations’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are created by retaining the tones heard on a specified time grid. Boulanger-Lewandowski (2012) uses a temporal resolution of quarter notes. This dataset does not currently encode fermatas and is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unable to distinguish between held and repeated notes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nsynth contains 305,979 notes, each with a unique pitch, timbre and envelope. For the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,006 instruments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the commercial sample library, the four-second, single-single instrument is generated in the range of each pitch (21-108) and five different speeds (25, 50, 75, 100, 127) of a standard MIDI piano.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lakh MIDI is a collection of 176,581 unique MIDI files, 45,129 of which have been matched and aligned with entries in the One Million Songs Dataset. It aims to facilitate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> large-scale retrieval of music information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, both symbolic (using MIDI files only) and audio content-based (using information extracted from MIDI files as annotations for matching audio files).</t>
+    </r>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Groove MIDI Dataset (GMD) consists of 13.6 hours of unified MIDI and (synthetic) audio of human-performed, rhythmically expressive drum sounds. The dataset contains 1150 MIDI files and over 22,000 drum sounds.</t>
+  </si>
+  <si>
+    <t>Nottingham Music Dataset maintained by Eric Foxley contains over 1000 folk tunes stored in a special text format. Using NMD2ABC, a program  written by Jay Glanville and some perl scripts, much of this database has been converted to ABC notation.</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Foxley </t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MIDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">representation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> effectively retain the concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple tracks playing multiple notes at once</t>
+    </r>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>(2016). Deep learning for music.</t>
+  </si>
+  <si>
+    <t>Polyphonic Music</t>
+  </si>
+  <si>
+    <t>Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,13 +628,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -349,14 +666,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,718 +998,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
-  <dimension ref="A1:B91"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
+        <v>36</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1388,24 +1743,326 @@
       <c r="A89" t="s">
         <v>42</v>
       </c>
-      <c r="B89" t="s">
-        <v>90</v>
+      <c r="B89" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E90" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C03CF9-1025-478E-BBA4-035AE2AD0605}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45" customWidth="1"/>
+    <col min="12" max="12" width="65.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>1150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{E7899A6A-12E5-4C9C-8F21-A63FDF1E87B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B91" t="s">
-        <v>90</v>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF5EB5B-A5F3-47FA-8DC8-48A97EC0E439}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848f6c63bb152c52/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CD07E8-A2B9-476B-B5B1-EE26AC447A60}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5E91A2-BF06-440C-8566-058C87C53E4F}"/>
   <bookViews>
     <workbookView xWindow="14370" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="830" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
   </bookViews>
@@ -23,9 +23,10 @@
     <sheet name="People to Interview" sheetId="3" r:id="rId8"/>
     <sheet name="Problem" sheetId="4" r:id="rId9"/>
     <sheet name="Questions for interviewees" sheetId="5" r:id="rId10"/>
+    <sheet name="To Do" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="312">
   <si>
     <t>Recurrent Neural Networks for Edge Intelligence: A Survey</t>
   </si>
@@ -97,9 +98,6 @@
     <t>Attention and Transformer Models</t>
   </si>
   <si>
-    <t>Large-Scale Music Genre Analysis and Classification Using Machine Learning with Apache Spark</t>
-  </si>
-  <si>
     <t>Generating music with sentiment using Transformer-GANs</t>
   </si>
   <si>
@@ -151,9 +149,6 @@
     <t>Application of Attention Mechanism on Multi-Instrumental Music Generation</t>
   </si>
   <si>
-    <t>Multitask learning for frame-level instrument recognition</t>
-  </si>
-  <si>
     <t>EMOPIA: A Multi-Modal Pop Piano Dataset For Emotion Recognition and Emotion-based Music Generation</t>
   </si>
   <si>
@@ -163,15 +158,9 @@
     <t>Transformer-XL Based Music Generation with Multiple Sequences of Time-valued Notes</t>
   </si>
   <si>
-    <t>Interactive composition, performance and music generation through iterative structures</t>
-  </si>
-  <si>
     <t>Deep Learning Techniques for Music Generation -- A Survey</t>
   </si>
   <si>
-    <t>Musicality-Novelty Generative Adversarial Nets for Algorithmic Composition</t>
-  </si>
-  <si>
     <t>Generating Long Sequences with Sparse Transformers</t>
   </si>
   <si>
@@ -181,12 +170,6 @@
     <t>Transformer-XL: Attentive Language Models Beyond a Fixed-Length Context</t>
   </si>
   <si>
-    <t>MuseGAN: Multi-track Sequential Generative Adversarial Networks for Symbolic Music Generation and Accompaniment</t>
-  </si>
-  <si>
-    <t>Music on the timing grid: The influence of microtiming on the perceived groove quality of a simple drum pattern performance</t>
-  </si>
-  <si>
     <t>DeepBach: a Steerable Model for Bach Chorales Generation</t>
   </si>
   <si>
@@ -202,12 +185,6 @@
     <t>Tree Transformer: Integrating Tree Structures into Self-Attention</t>
   </si>
   <si>
-    <t>Pervasive Attention: 2D Convolutional Neural Networks for Sequence-to-Sequence Prediction</t>
-  </si>
-  <si>
-    <t>Open Sourcing BERT: State-of-the-Art Pre-training for Natural Language Processing</t>
-  </si>
-  <si>
     <t>A Structured Self-attentive Sentence Embedding</t>
   </si>
   <si>
@@ -235,9 +212,6 @@
     <t>Transformers are RNNs: Fast Autoregressive Transformers with Linear Attention</t>
   </si>
   <si>
-    <t>Learning-Based Methods for Comparing Sequences, with Applications to Audio-to-MIDI Alignment and Matching</t>
-  </si>
-  <si>
     <t>Composition and production of music using Momentum LSTM</t>
   </si>
   <si>
@@ -283,9 +257,6 @@
     <t>An automatic music generation and evaluation method based on transfer learning</t>
   </si>
   <si>
-    <t>MetaMGC: a music generation framework for concerts in metaverse</t>
-  </si>
-  <si>
     <t>CTRL: A Conditional Transformer Language Model for Controllable Generation</t>
   </si>
   <si>
@@ -299,9 +270,6 @@
   </si>
   <si>
     <t>The match file format: Encoding Alignments between Scores and Performances</t>
-  </si>
-  <si>
-    <t>On the Typicality of Musical Sequences</t>
   </si>
   <si>
     <t>Theme Transformer: Symbolic Music Generation with Theme-Conditioned Transformer (2022)</t>
@@ -1232,6 +1200,123 @@
   <si>
     <t>Performance is measured using the validation set loss.
 The loss is reported in the form of Negative Log Likelihood (NLL).</t>
+  </si>
+  <si>
+    <t>The paper introduces the Insertion Transformer, a sequence generation model that's partially autoregressive and based on insertion operations. Unlike traditional autoregressive models, the Insertion Transformer accommodates arbitrary token orderings during decoding, which offers several advantages. It can be trained for specific orderings, maximize entropy over all valid insertions, and support both fully autoregressive and partially autoregressive generation. The model is validated on the WMT 2014 English-German machine translation task, and it outperforms non-autoregressive approaches while maintaining high parallelism and reducing the number of decoding iterations compared to the standard Transformer model.</t>
+  </si>
+  <si>
+    <t>Transformer (language translation)</t>
+  </si>
+  <si>
+    <t>In this paper, the authors address the modeling of symbolic sequences of polyphonic music using a general piano-roll representation. They introduce a probabilistic model that utilizes distribution estimators conditioned on a recurrent neural network to discover temporal dependencies in high-dimensional sequences. Their approach outperforms traditional models on various realistic datasets, particularly in the realm of polyphonic transcription, where it serves as a valuable symbolic prior, enhancing the accuracy of transcription.</t>
+  </si>
+  <si>
+    <t>This study addresses the challenge of generating music with distinct motifs, which are recurring musical patterns. They introduce the Motif Transformer, a multi-encoder model for music generation, incorporating an original encoder, a bidirectional long short-term memory-attention encoder, and a gated decoder. This model excels in capturing motifs in music, leading to the creation of music with more repetitive fragments, as confirmed by both objective metrics and subjective listening experiments. The Motif Transformer holds potential for music creation, consumption, and the music industry's development. However, further work is needed to generate music containing multiple types of motifs.</t>
+  </si>
+  <si>
+    <t>Repetitive pattern</t>
+  </si>
+  <si>
+    <t>This study uses the POP909 dataset [25] to perform experiments on our model. The POP909 dataset contains 909 popular music tracks in midi form composed by professional musicians. The songs in the dataset include three main types of musical information: the main melody (with the vocal pair thereof), the secondary melody, and the piano accompaniment. In this case, the secondary melody plays a minor role in the whole song, and its removal does not affect the quality of the song too much [13]. Referrin to [19], this study used information from only two tracks, the main melody and the piano accompaniment, and selected the songs in 4/4 time in them. After the selection was completed, a total of 713 songs were available for the experiment, of which we took 29 songs as the test set, and the remaining songs were used for model training. To make the POP909 dataset available for experiments on the model, we need to extract music features from music files in midi format and combine them into event sequences. This study uses two tracks (main melody and piano accompaniment) from the POP dataset songs, and the extracted note- related sequences are Note-On-Melody, NoteDuration-Melody, Note-Velocity-Melody, Note-On-Piano, Note-Duration-Piano, and Note-Velocity-Piano; Rhythm and position related sequences as Tempo, Bar, and Position; in which, Note-On indicates the pitch start time (range is 1-127), Note-Duration indicates the pitch playing duration (1/4 beat as the basic the unit, range is 1-64), Note-Velocity indicates the pitch playing intensity (range is 1-126), Tempo means the song playing tempo, taking the value of 17bpm-194bpm, Bar shows the number of bars, and Position indicates the position of each event. In addition, following [13], motif-start and motif-end are set in the music motifs to mark the start and end of the music motifs.</t>
+  </si>
+  <si>
+    <t>motif in music and how to track</t>
+  </si>
+  <si>
+    <t>This paper explores multi-task learning (MTL) settings for sequence-to-sequence models and investigates the impact of sharing encoders and decoders in various configurations. Three MTL scenarios are considered: one-to-many, many-to-one, and many-to-many. The results show that combining small amounts of data from tasks like parsing and image captioning can significantly enhance translation quality, outperforming single-task models on translation benchmarks. Additionally, the study establishes a new state-of-the-art result in constituent parsing and highlights how different unsupervised learning objectives impact MTL performance in translation tasks, with autoencoder improving BLEU scores compared to skip-thought. The paper suggests that these findings can inspire future work in leveraging unsupervised data for sequence-to-sequence learning, while also acknowledging that the models used do not employ attention mechanisms, which may be explored in future research.</t>
+  </si>
+  <si>
+    <t>This paper explores the use of machine learning models to generate non-repetitive and enjoyable music. The proposed approach consists of two networks: a Discriminatory network that selects the next note or chord based on a seed bar of music using Support Vector Machines and Neural Nets, and a Generative Net that generates an entire bar of music using Generative Pretrained Transformers (GPT2) and LSTMs. The goal is to create a method that closely resembles human music composition, resulting in better-sounding music. Machine-generated music is copyright-free and can be generated based on specific parameters. The paper introduces several use cases and offers a valuable framework for training music generation models using text-based notations, with potential for further improvements and enhancements in future work.</t>
+  </si>
+  <si>
+    <t>Repetitive Pattern</t>
+  </si>
+  <si>
+    <t>More papers to include from here</t>
+  </si>
+  <si>
+    <t>The aim of the paper is to apply deep learning methods, specifically long short-term memory (LSTM) networks, to music transcription modeling and composition, using a large dataset of music transcriptions in ABC notation. The authors seek to create music transcription models that can facilitate music composition within specific conventions, with a focus on traditional Celtic music practice, while recognizing the importance of human creativity in the composition process.</t>
+  </si>
+  <si>
+    <t>convert audio to abc and then created music</t>
+  </si>
+  <si>
+    <t>This paper explores the use of the Transformer model with a modified relative attention mechanism to generate symbolic music, which relies on the importance of repetition and relative timing. The researchers demonstrate that their approach can generate music compositions with compelling long-term structure, elaborate on given motifs, and generate accompaniments based on melodies. This modified relative attention mechanism improves the Transformer's ability to capture periodicity in various time scales, which has broader implications for applications in text processing and audio analysis.</t>
+  </si>
+  <si>
+    <t>Repetitve Pattern</t>
+  </si>
+  <si>
+    <t>Email the good papers I picked out with data prep included in the papers or the ones that used the datasets I want to use and ask them if they have code for their data prep or suggestions on how to do it.</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>madmom</t>
+  </si>
+  <si>
+    <t>miditoolkit</t>
+  </si>
+  <si>
+    <t>pytorch-fast-transformers</t>
+  </si>
+  <si>
+    <t>import sys</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>import math</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>import glob</t>
+  </si>
+  <si>
+    <t>import datetime</t>
+  </si>
+  <si>
+    <t>import random</t>
+  </si>
+  <si>
+    <t>import pickle</t>
+  </si>
+  <si>
+    <t>import json</t>
+  </si>
+  <si>
+    <t>from tqdm.notebook import tqdm</t>
+  </si>
+  <si>
+    <t>import torch</t>
+  </si>
+  <si>
+    <t>import torch.nn as nn</t>
+  </si>
+  <si>
+    <t>import torch.nn.functional as F</t>
+  </si>
+  <si>
+    <t>import torch.optim as optim</t>
+  </si>
+  <si>
+    <t>from torch.nn.utils import clip_grad_norm_</t>
+  </si>
+  <si>
+    <t>from torch.utils.data import Dataset, DataLoader</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1AU8iMhy10WxHj7yt3j8S3FQvvKvgXrr0#scrollTo=fv-F9tU2X9AT</t>
+  </si>
+  <si>
+    <t>This paper addresses the limitation of neural network capacity due to the number of parameters and introduces a Sparsely-Gated Mixture-of-Experts layer (MoE) to achieve conditional computation. By using up to thousands of feed-forward sub-networks and a trainable gating network, they increase model capacity by over 1000 times while maintaining computational efficiency. They apply this approach to language modeling and machine translation tasks, outperforming existing models at a lower computational cost. This work demonstrates the potential of conditional computation for deep networks and opens up possibilities for various applications in the future.</t>
+  </si>
+  <si>
+    <t>Computational Cost</t>
   </si>
 </sst>
 </file>
@@ -1302,14 +1387,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1334,23 +1418,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1741,925 +1822,886 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="37" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" customWidth="1"/>
+    <col min="6" max="6" width="58.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="E1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>97</v>
+      <c r="E2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>99</v>
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>208</v>
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>214</v>
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>216</v>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>233</v>
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>239</v>
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>95</v>
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>243</v>
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="6" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="15" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>95</v>
+      <c r="A28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>276</v>
+      <c r="A31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B68" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>83</v>
+      <c r="B71" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>83</v>
+      <c r="B72" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F84" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
+  <autoFilter ref="A1:F72" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
     <filterColumn colId="1">
       <filters>
         <filter val="No"/>
@@ -2687,26 +2729,53 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39CFEE9-0BE7-4A54-9B9F-D24F3A747B5A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2718,330 +2787,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C03CF9-1025-478E-BBA4-035AE2AD0605}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="68" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45" style="6" customWidth="1"/>
-    <col min="11" max="11" width="167.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="18.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45" style="5" customWidth="1"/>
+    <col min="11" max="11" width="167.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45129</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1150</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="18">
-        <v>45129</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1150</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>218</v>
+      <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>170</v>
+      <c r="A8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="B16" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="J15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="17" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="17"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="17"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="17"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="17"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="17"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="17"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="17"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="17"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="17"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="17"/>
+      <c r="K26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3061,114 +3130,334 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AE754-B83B-4E8C-8656-C3C82B771DCB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>219</v>
+      <c r="A7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3191,157 +3480,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>168</v>
+      <c r="A2" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3351,84 +3640,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8190A18B-0111-4379-88D1-B56CD56F3331}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3447,53 +3748,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="29.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>126</v>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
+      <c r="A2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+      <c r="A3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3515,55 +3816,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>210</v>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
+      <c r="A2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>211</v>
+      <c r="A3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3585,91 +3895,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>180</v>
+      <c r="G2" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>181</v>
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>182</v>
+      <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
+      <c r="A5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="5" t="e" vm="2">
+      <c r="E6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848f6c63bb152c52/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5E91A2-BF06-440C-8566-058C87C53E4F}"/>
+  <xr:revisionPtr revIDLastSave="704" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85B9AE9-1101-437D-9C5C-8A1B903B653D}"/>
   <bookViews>
     <workbookView xWindow="14370" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="830" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="To Do" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,10 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="312">
-  <si>
-    <t>Recurrent Neural Networks for Edge Intelligence: A Survey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="320">
   <si>
     <t>Sequence Tutor: Conservative Fine-Tuning of Sequence Generation Models with KL-control</t>
   </si>
@@ -152,9 +149,6 @@
     <t>EMOPIA: A Multi-Modal Pop Piano Dataset For Emotion Recognition and Emotion-based Music Generation</t>
   </si>
   <si>
-    <t>Training language GANs from Scratch</t>
-  </si>
-  <si>
     <t>Transformer-XL Based Music Generation with Multiple Sequences of Time-valued Notes</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>An End-to-End Neural Network for Polyphonic Piano Music Transcription</t>
   </si>
   <si>
-    <t>Transformers in depth - Part 1. Introduction to Transformer models in 5 minutes</t>
-  </si>
-  <si>
     <t>Motif Transformer: Generating Music With Motifs</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>Transformer-based ensemble method for multiple predominant instruments recognition in polyphonic music</t>
   </si>
   <si>
-    <t>Transformers, transformers everywhere</t>
-  </si>
-  <si>
     <t>A Statistical Analysis of a Midi File Database</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t>Polyphonic Music Generation by Modeling Temporal Dependencies Using a RNN-DBN</t>
   </si>
   <si>
-    <t>User’s Guide, Chapter 7: Chords — music21 Documentation</t>
-  </si>
-  <si>
     <t>An automatic music generation and evaluation method based on transfer learning</t>
   </si>
   <si>
@@ -285,9 +270,6 @@
   </si>
   <si>
     <t>MMM : Exploring Conditional Multi-Track Music Generation with the Transformer</t>
-  </si>
-  <si>
-    <t>The Elements of Music, Bloomsbury</t>
   </si>
   <si>
     <t>Musenet : Music Generation using Abstractive and Generative Methods</t>
@@ -1317,6 +1299,49 @@
   </si>
   <si>
     <t>Computational Cost</t>
+  </si>
+  <si>
+    <t>The paper introduces a method called Recurrent Neural Network-Deep Belief Network (RNN-DBN) for modeling sequences and temporal dependencies, with a focus on its application in polyphonic music generation. This technique combines the memory state of a recurrent neural network (RNN) to provide temporal information with a multi-layer Deep Belief Network (DBN) for high-level data representation. The authors have successfully applied RNN-DBN to polyphonic music generation, achieving competitive results with existing methods. Ongoing work includes further improvements through pretraining and optimization techniques, as well as exploring its versatility for different problem domains.</t>
+  </si>
+  <si>
+    <t>The paper discusses a technique called scheduled sampling, which is used to address exposure bias in sequence-to-sequence generation. Exposure bias occurs when models are trained using teacher-forced embeddings, and the issue is more complex when dealing with Transformer models due to their unique decoding approach. The authors propose a two-pass decoding strategy to adapt scheduled sampling to the Transformer architecture and demonstrate promising results on two language pairs for machine translation, achieving performance close to a teacher-forcing baseline. Future work includes experimenting with different schedules and exploring the reasons for the performance variation in certain setups.</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>This paper extends the Transformer model by introducing a self-attention mechanism to consider relative positions between sequence elements, improving machine translation performance compared to using absolute positions alone. The authors achieve significant BLEU score improvements for English-to-German and English-to-French translation tasks. They also plan to expand this mechanism for handling graph-labeled inputs and explore nonlinear compatibility functions in future work.</t>
+  </si>
+  <si>
+    <t>Self Attention (language model)</t>
+  </si>
+  <si>
+    <t>This paper presents a novel approach to enhance the quality and structure of sequences generated by recurrent neural networks (RNNs). It combines maximum likelihood estimation (MLE) pre-training with reinforcement learning (RL) to generate high-quality sequences while preserving original data knowledge and diversity. The authors demonstrate the effectiveness of this method in generating musical melodies and computational molecular structures, and they believe it holds promise for various applications, including addressing biases in deep learning models.</t>
+  </si>
+  <si>
+    <t>This research paper introduces a Transformer-GAN framework for improving the quality of long music compositions generated by transformers. The authors address the problem of exposure bias by training a discriminator alongside the traditional likelihood maximization objective. They employ a pre-trained SpanBERT model for the discriminator, and their approach outperforms baseline models trained solely with likelihood maximization, as well as the state-of-the-art Music Transformer, as demonstrated through human evaluations and objective metrics. The paper also discusses potential extensions of their work, including pretraining on larger datasets.</t>
+  </si>
+  <si>
+    <t>This research paper addresses the challenge of text generation from language models and the limitations of traditional decoding methods, such as likelihood maximization and beam search. The authors introduce Nucleus Sampling, a more effective approach that avoids issues like text degeneration and repetitive loops by sampling from the more reliable portion of the probability distribution. They show that likelihood maximization is not suitable for open-ended text generation and that Nucleus Sampling is currently the best method for generating high-quality and diverse long-form text, as validated through human evaluation. The paper also suggests further research in characterizing the confidence region of language models and incorporating a semantic utility function into the decoding process.</t>
+  </si>
+  <si>
+    <t>This research paper introduces the "match" file format, which extends MIDI human performances with note, beat, and downbeat-level alignments to corresponding musical scores. The match format facilitates advanced analyses of musical performances, benefiting tasks like expressive performance modeling, score following, music transcription, and performer classification. The match file includes score-related descriptors, making it usable as a basic score representation. The paper also announces the release of an updated Vienna4x22 dataset, which includes scores and performances aligned with match files. The authors plan to continue developing the format to support additional features and practical applications, including visualization and automatic alignment tools.</t>
+  </si>
+  <si>
+    <t>This research paper introduces a theme-based conditioning approach for automatic music generation using Transformer models. Unlike the conventional prompt-based conditioning, the proposed Theme Transformer explicitly trains the model to treat the conditioning sequence as thematic material that should manifest itself multiple times in the generated output. The authors employ contrastive representation learning and clustering to automatically extract thematic materials from training data and introduce a novel gated parallel attention module in a sequence-to-sequence architecture. Objective and subjective evaluations demonstrate that the Theme Transformer outperforms baseline models in generating polyphonic pop piano music with repetition and plausible variations based on a given condition. Future extensions include exploring multi-theme compositions, utilizing similarity measures for thematic development, and enabling user-created or generated themes for conditioning.
+This research paper introduces the Theme Transformer, an alternative conditioning approach for automatic music generation using Transformer models. It employs contrastive learning and clustering to extract thematic materials, demonstrating improved performance in generating polyphonic pop piano music with repetitions and variations compared to conventional prompt-based models. The authors suggest potential extensions, including multi-theme compositions and user-generated or autonomously generated themes.</t>
+  </si>
+  <si>
+    <t>This research paper explores the space of direct performance generation in music, emphasizing the joint prediction of notes, expressive timing, and dynamics. The authors propose the effectiveness of working in the realm of MIDI performances and describe the characteristics of an appropriate dataset. They introduce an LSTM-based recurrent network model that performs well in generating music, demonstrating a system that creates audio resembling a skilled pianist experimenting with phrasing and dynamics. Feedback from professional composers and musicians suggests that the system's local structure is strong, although long-term structure is not fully developed, leading some to mistake the generated samples for human performances.</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>This research paper addresses multiple predominant instrument recognition in polyphonic music using an ensemble of transformer-based architectures on various visual representations, including Mel-spectrogram, modgdgram, and tempogram. Two transformer architectures, Vision transformer (Vi-T) and Shifted window transformer (Swin-T), are experimented with, and the proposed system, employing Swin-T in an ensemble voting scheme, outperforms state-of-the-art models with a micro and macro F1 score of 0.66 and 0.62, respectively. The study introduces an alternative visual representation, modgdgram, and explores WaveGAN for data augmentation, demonstrating the potential of ensemble voting in recognizing predominant instruments in polyphonic music. Future work includes synthesizing high-quality audio files and comparing audio augmentation pipelines.</t>
+  </si>
+  <si>
+    <t>This research paper introduces Tree Transformer, a modification to the bidirectional Transformer encoder, aiming to induce tree structures in attention heads. The proposed model adds a constraint to encourage attention heads to follow tree-like patterns, achieved through a "Constituent Attention" module that utilizes self-attention between adjacent words. The experiments demonstrate the effectiveness of Tree Transformer in inducing coherent tree structures, improving language modeling, and generating more interpretable attention scores. The study suggests that incorporating tree structures into Transformer models is a promising direction for enhancing interpretability and performance in natural language processing tasks.</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1424,14 +1449,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,17 +1844,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" customWidth="1"/>
@@ -1842,869 +1864,892 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>177</v>
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B54" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F72" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:F66" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
+    <filterColumn colId="4">
       <filters>
-        <filter val="No"/>
+        <filter val="attention .v. non attention (language)"/>
+        <filter val="Transfomer"/>
+        <filter val="Transformer"/>
+        <filter val="Transformer (faster)"/>
+        <filter val="Transformer (language translation)"/>
+        <filter val="Transformer (language)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2729,26 +2774,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2772,10 +2817,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2810,307 +2855,307 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="13">
         <v>45129</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5">
         <v>1150</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="14" t="e" vm="1">
+        <v>28</v>
+      </c>
+      <c r="K15" s="15" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K16" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="14"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="14"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="14"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="14"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="14"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="14"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="14"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="14"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="14"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="14"/>
+      <c r="K26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3147,317 +3192,317 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
         <v>303</v>
-      </c>
-      <c r="D22" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3480,157 +3525,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3657,79 +3702,79 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3757,44 +3802,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3834,46 +3879,46 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>200</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3907,77 +3952,77 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G6" s="4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/References.xlsx
+++ b/References.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848f6c63bb152c52/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85B9AE9-1101-437D-9C5C-8A1B903B653D}"/>
+  <xr:revisionPtr revIDLastSave="1026" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8129189E-18AF-44D6-B1FB-C53546302813}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="830" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="938" activeTab="3" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Research Papers" sheetId="1" r:id="rId1"/>
-    <sheet name="Dataset" sheetId="2" r:id="rId2"/>
-    <sheet name="Code" sheetId="6" r:id="rId3"/>
-    <sheet name="Snips of code" sheetId="10" r:id="rId4"/>
-    <sheet name="Data Prep" sheetId="7" r:id="rId5"/>
-    <sheet name="Evaluation of Model" sheetId="9" r:id="rId6"/>
-    <sheet name="GitHub Links" sheetId="8" r:id="rId7"/>
-    <sheet name="People to Interview" sheetId="3" r:id="rId8"/>
-    <sheet name="Problem" sheetId="4" r:id="rId9"/>
-    <sheet name="Questions for interviewees" sheetId="5" r:id="rId10"/>
-    <sheet name="To Do" sheetId="11" r:id="rId11"/>
+    <sheet name="Sampling" sheetId="12" r:id="rId2"/>
+    <sheet name="Dataset" sheetId="2" r:id="rId3"/>
+    <sheet name="Code" sheetId="6" r:id="rId4"/>
+    <sheet name="Snips of code" sheetId="10" r:id="rId5"/>
+    <sheet name="Data Prep" sheetId="7" r:id="rId6"/>
+    <sheet name="Evaluation of Model" sheetId="9" r:id="rId7"/>
+    <sheet name="GitHub Links" sheetId="8" r:id="rId8"/>
+    <sheet name="People to Interview" sheetId="3" r:id="rId9"/>
+    <sheet name="Problem" sheetId="4" r:id="rId10"/>
+    <sheet name="Questions for interviewees" sheetId="5" r:id="rId11"/>
+    <sheet name="To Do" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="356">
   <si>
     <t>Sequence Tutor: Conservative Fine-Tuning of Sequence Generation Models with KL-control</t>
   </si>
@@ -311,9 +312,6 @@
     <t>Polyphonic</t>
   </si>
   <si>
-    <t>Language model able to understand the contet of a sentence better than complex neural methods (LSTM, CNN, GRU) v Vanilla Transformer</t>
-  </si>
-  <si>
     <t>Paragraph</t>
   </si>
   <si>
@@ -324,9 +322,6 @@
   </si>
   <si>
     <t>Transformer is better than RNN</t>
-  </si>
-  <si>
-    <t>MusicVAE is created by introducing hiercrchical to the recurrent VAE model to avoid "posterior collapse" problem. It improves modeling of sequences with long-term structure. They compared VAE (flat) to Music VAE (hierarchical) and found an improvement but didn't compare against other models.</t>
   </si>
   <si>
     <t>RNN</t>
@@ -900,9 +895,6 @@
     <t>Evaluate the model on 3 different tasks: author profiling, sentiment classification and textual entailment. Self attention model yields a significant performance gain compared to other sentence embedding methods in all of the 3 tasks.</t>
   </si>
   <si>
-    <t>Self Attention</t>
-  </si>
-  <si>
     <t>Self attention is better than other sentence embedding methods</t>
   </si>
   <si>
@@ -1184,9 +1176,6 @@
 The loss is reported in the form of Negative Log Likelihood (NLL).</t>
   </si>
   <si>
-    <t>The paper introduces the Insertion Transformer, a sequence generation model that's partially autoregressive and based on insertion operations. Unlike traditional autoregressive models, the Insertion Transformer accommodates arbitrary token orderings during decoding, which offers several advantages. It can be trained for specific orderings, maximize entropy over all valid insertions, and support both fully autoregressive and partially autoregressive generation. The model is validated on the WMT 2014 English-German machine translation task, and it outperforms non-autoregressive approaches while maintaining high parallelism and reducing the number of decoding iterations compared to the standard Transformer model.</t>
-  </si>
-  <si>
     <t>Transformer (language translation)</t>
   </si>
   <si>
@@ -1211,9 +1200,6 @@
     <t>This paper explores the use of machine learning models to generate non-repetitive and enjoyable music. The proposed approach consists of two networks: a Discriminatory network that selects the next note or chord based on a seed bar of music using Support Vector Machines and Neural Nets, and a Generative Net that generates an entire bar of music using Generative Pretrained Transformers (GPT2) and LSTMs. The goal is to create a method that closely resembles human music composition, resulting in better-sounding music. Machine-generated music is copyright-free and can be generated based on specific parameters. The paper introduces several use cases and offers a valuable framework for training music generation models using text-based notations, with potential for further improvements and enhancements in future work.</t>
   </si>
   <si>
-    <t>Repetitive Pattern</t>
-  </si>
-  <si>
     <t>More papers to include from here</t>
   </si>
   <si>
@@ -1224,9 +1210,6 @@
   </si>
   <si>
     <t>This paper explores the use of the Transformer model with a modified relative attention mechanism to generate symbolic music, which relies on the importance of repetition and relative timing. The researchers demonstrate that their approach can generate music compositions with compelling long-term structure, elaborate on given motifs, and generate accompaniments based on melodies. This modified relative attention mechanism improves the Transformer's ability to capture periodicity in various time scales, which has broader implications for applications in text processing and audio analysis.</t>
-  </si>
-  <si>
-    <t>Repetitve Pattern</t>
   </si>
   <si>
     <t>Email the good papers I picked out with data prep included in the papers or the ones that used the datasets I want to use and ask them if they have code for their data prep or suggestions on how to do it.</t>
@@ -1342,13 +1325,343 @@
   </si>
   <si>
     <t>This research paper introduces Tree Transformer, a modification to the bidirectional Transformer encoder, aiming to induce tree structures in attention heads. The proposed model adds a constraint to encourage attention heads to follow tree-like patterns, achieved through a "Constituent Attention" module that utilizes self-attention between adjacent words. The experiments demonstrate the effectiveness of Tree Transformer in inducing coherent tree structures, improving language modeling, and generating more interpretable attention scores. The study suggests that incorporating tree structures into Transformer models is a promising direction for enhancing interpretability and performance in natural language processing tasks.</t>
+  </si>
+  <si>
+    <t>The paper introduces the Insertion Transformer, a partially autoregressive model for sequence generation using insertion operations. Unlike traditional models, it allows flexible token insertions during decoding, accommodating various orderings. The model outperforms prior non-autoregressive approaches on the WMT 2014 English-German translation task, achieving comparable parallelism with fewer decoding iterations. Its versatility in handling diverse orderings makes it a promising choice for sequence generation tasks.</t>
+  </si>
+  <si>
+    <t>The paper introduces a simple attention-based neural architecture for natural language inference, demonstrating state-of-the-art results on the Stanford Natural Language Inference (SNLI) dataset. The approach decomposes the problem into subproblems, enabling easy parallelization and achieving superior performance with significantly fewer parameters than previous models. Notably, the method does not rely on word-order information, and incorporating intra-sentence attention further enhances performance. This paper is valuable for a literature review on generating polyphonic music with attention-based transformer models, showcasing the effectiveness of attention mechanisms in solving complex tasks with simplicity and parallelizability.</t>
+  </si>
+  <si>
+    <t>Language model able to understand the contet of a sentence better than complex neural methods (LSTM, CNN, GRU) v Vanilla Transformer
+The paper introduces a simple attention-based neural architecture for natural language inference, demonstrating state-of-the-art results on the Stanford Natural Language Inference (SNLI) dataset. The approach decomposes the problem into subproblems, enabling easy parallelization and achieving superior performance with significantly fewer parameters than previous models. Notably, the method does not rely on word-order information, and incorporating intra-sentence attention further enhances performance. This paper is valuable for a literature review on generating polyphonic music with attention-based transformer models, showcasing the effectiveness of attention mechanisms in solving complex tasks with simplicity and parallelizability.</t>
+  </si>
+  <si>
+    <t>Transformer (Language)</t>
+  </si>
+  <si>
+    <t>just through this name in</t>
+  </si>
+  <si>
+    <t>jsfakes</t>
+  </si>
+  <si>
+    <t>This was recommended to start with this dataset by 
+Tristan Behrens as it is easier to get your head around music generation first before you scale up to large datasets https://www.youtube.com/watch?v=LG2vULtkdpc</t>
+  </si>
+  <si>
+    <t>500 songs 15mb data</t>
+  </si>
+  <si>
+    <t>The research paper introduces MusicVAE, a recurrent Variational Autoencoder (VAE) designed to enhance the modeling of sequences with long-term structure, particularly in musical notes. MusicVAE demonstrates superior performance in sampling, interpolation, and reconstruction compared to a "flat" baseline model, making it highly relevant and promising for advancing the field of music generation. The availability of the code and pre-trained models encourages further exploration and application of MusicVAE in both music generation and other types of sequential data.</t>
+  </si>
+  <si>
+    <t>Exploring Sampling Techniques for Generating Melodies with a Transformer Language Model</t>
+  </si>
+  <si>
+    <t>top-k sampling, nucleus sampling</t>
+  </si>
+  <si>
+    <t>Explained</t>
+  </si>
+  <si>
+    <t>Online Search</t>
+  </si>
+  <si>
+    <t>Temperature Control</t>
+  </si>
+  <si>
+    <t>Sampling Techniques</t>
+  </si>
+  <si>
+    <t>Conditioning the Model</t>
+  </si>
+  <si>
+    <t>Diverse Training Data</t>
+  </si>
+  <si>
+    <t>Incorporate Human Feedback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Higher temperatures </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(e.g., 0.8-1.0) can introduce more randomness and variation in generated sequences.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lower temperatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., 0.2-0.5) lead to more focused and deterministic outputs, potentially resulting in repetition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instead of always selecting the most probable next note, consider using techniques like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>top-k sampling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>nucleus sampling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. These methods sample from the top-k or top-p (nucleus) most likely candidates, adding diversity to the generated sequences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You can</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the model on certain input</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> features or context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, such as a specific</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> musical theme, style, or emotion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. This can guide the model to generate music that aligns with the given conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a combination of AI-generated content and human feedback to refine the model. Iterative processes involving human </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and adjustments can lead to more satisfying and less repetitive results.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ensure that your model is trained on a diverse</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that covers various musical styles and genres. This can help the model learn a broader range of patterns and reduce the likelihood of generating repetitive sequences.</t>
+    </r>
+  </si>
+  <si>
+    <t>music generation "conditioning the model" research paper</t>
+  </si>
+  <si>
+    <t>music generation "top-k sampling" "nucleus sampling" research paper</t>
+  </si>
+  <si>
+    <t>Hyperbolic Music Transformer for Structured Music Generation</t>
+  </si>
+  <si>
+    <t>Symbolic Music Loop Generation with Neural Discrete Representations</t>
+  </si>
+  <si>
+    <t>Improving Diversity of Neural Text Generation via Inverse Probability Weighting</t>
+  </si>
+  <si>
+    <t>Trading Off Diversity and Quality in Natural Language Generation</t>
+  </si>
+  <si>
+    <t>music generation transformer model "temperature parameter" research paper</t>
+  </si>
+  <si>
+    <t>temperature parameter</t>
+  </si>
+  <si>
+    <t>Music Generation System for Adversarial Training Based on Deep Learning</t>
+  </si>
+  <si>
+    <t>just as name</t>
+  </si>
+  <si>
+    <t>Musical Form Generation</t>
+  </si>
+  <si>
+    <t>Transformer Neural Networks for Automated Rhythm Generation</t>
+  </si>
+  <si>
+    <t>A Domain-Knowledge-Inspired Music Embedding Space and a Novel Attention Mechanism for Symbolic Music Modeling</t>
+  </si>
+  <si>
+    <t>SYMBOLIC MUSIC GENERATION WITH DIFFUSION MODELS</t>
+  </si>
+  <si>
+    <t>mido</t>
+  </si>
+  <si>
+    <t>miditok</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Parser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is something that understands the data structure and then divides the data into smaller chunks according to what it is saying (similar to html)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PrettyMidi </t>
+  </si>
+  <si>
+    <t>MidiEventProcessor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,8 +1685,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,8 +1730,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1407,12 +1745,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1452,9 +1805,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1844,19 +2240,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" customWidth="1"/>
     <col min="6" max="6" width="58.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
@@ -1871,53 +2267,55 @@
       </c>
       <c r="C1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>66</v>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -1925,110 +2323,113 @@
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>66</v>
+      <c r="B6" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>66</v>
+      <c r="B8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="216" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>66</v>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
+      <c r="B11" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2036,10 +2437,10 @@
         <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -2047,12 +2448,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2061,8 +2462,8 @@
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2075,17 +2476,17 @@
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>66</v>
+      <c r="B16" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
@@ -2096,72 +2497,72 @@
         <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
+      <c r="B18" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>66</v>
+      <c r="B19" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
+      <c r="B20" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>66</v>
+      <c r="B21" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2169,50 +2570,50 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>66</v>
+      <c r="B23" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>66</v>
+      <c r="B24" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2220,10 +2621,10 @@
         <v>66</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2234,17 +2635,17 @@
         <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2253,22 +2654,22 @@
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>66</v>
+      <c r="B28" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2277,8 +2678,8 @@
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2287,36 +2688,36 @@
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>66</v>
+      <c r="B31" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>66</v>
+      <c r="B32" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2325,7 +2726,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -2333,28 +2734,28 @@
         <v>66</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>66</v>
+      <c r="B35" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2364,7 +2765,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2373,8 +2774,8 @@
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2387,17 +2788,17 @@
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>66</v>
+      <c r="B39" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2405,28 +2806,28 @@
         <v>66</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>66</v>
+      <c r="B41" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2435,7 +2836,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
@@ -2443,10 +2844,10 @@
         <v>66</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -2454,31 +2855,31 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>66</v>
+      <c r="B45" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2487,7 +2888,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>42</v>
       </c>
@@ -2495,13 +2896,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>35</v>
       </c>
@@ -2509,10 +2910,10 @@
         <v>66</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -2523,34 +2924,34 @@
         <v>66</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>66</v>
+      <c r="B50" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
@@ -2558,42 +2959,42 @@
         <v>66</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>66</v>
+      <c r="B53" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>66</v>
+      <c r="B54" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2602,21 +3003,21 @@
       <c r="C55" s="3"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>66</v>
+      <c r="B56" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
@@ -2624,13 +3025,13 @@
         <v>66</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
@@ -2638,14 +3039,14 @@
         <v>66</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2654,50 +3055,50 @@
       <c r="C59" s="3"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>66</v>
+      <c r="B61" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>66</v>
+      <c r="B62" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2706,8 +3107,8 @@
       <c r="C63" s="3"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2716,8 +3117,8 @@
       <c r="C64" s="3"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2726,1210 +3127,189 @@
       <c r="C65" s="3"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>78</v>
+      <c r="E67" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F66" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
+  <autoFilter ref="A1:F76" xr:uid="{0B71426C-F4CA-4AC8-8728-D99214761F54}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="attention .v. non attention (language)"/>
-        <filter val="Transfomer"/>
-        <filter val="Transformer"/>
-        <filter val="Transformer (faster)"/>
-        <filter val="Transformer (language translation)"/>
-        <filter val="Transformer (language)"/>
+        <filter val="Repetitive pattern"/>
+        <filter val="Sampling"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF82FE-4F13-4D1B-9DAC-B62E57AFDD8A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="153.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39CFEE9-0BE7-4A54-9B9F-D24F3A747B5A}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C03CF9-1025-478E-BBA4-035AE2AD0605}">
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45" style="5" customWidth="1"/>
-    <col min="11" max="11" width="167.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="13">
-        <v>45129</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1150</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="J15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="15" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K15:K26"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{E7899A6A-12E5-4C9C-8F21-A63FDF1E87B3}"/>
-    <hyperlink ref="J8" r:id="rId2" display="https://magenta.tensorflow.org/datasets/maestro" xr:uid="{EF58D94F-ED59-414F-922C-6ECA026D8B6D}"/>
-    <hyperlink ref="J11" r:id="rId3" display="http://www.tsi.telecom-paristech.fr/aao/en/2013/07/15/maps-database/" xr:uid="{A1D54D05-58D5-4B30-A321-4B01B7DF2D71}"/>
-    <hyperlink ref="J12" r:id="rId4" display="https://magenta.tensorflow.org/datasets/bach_doodle" xr:uid="{659D952C-BBC5-4728-8283-EBA6E4F13260}"/>
-    <hyperlink ref="J13" r:id="rId5" display="https://midiworld.com/" xr:uid="{CFEBF633-F794-4C5E-AE3A-823DE50C48D6}"/>
-    <hyperlink ref="J14" r:id="rId6" display="https://freemidi.org/" xr:uid="{20661508-175D-45F4-9B0F-842AE38E9F26}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AE754-B83B-4E8C-8656-C3C82B771DCB}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02744-2855-4869-A6CC-88BDE704400C}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8190A18B-0111-4379-88D1-B56CD56F3331}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63F65D3-0B38-4925-8E6E-15354D143ABB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA53FB-C3C0-406A-9585-9B64A0E24AD5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{F078DC2D-C738-4528-80BC-263D52A7E2A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF5EB5B-A5F3-47FA-8DC8-48A97EC0E439}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3952,69 +3332,69 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>52</v>
@@ -4022,7 +3402,7 @@
     </row>
     <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G6" s="4" t="e" vm="2">
         <v>#VALUE!</v>
@@ -4031,4 +3411,1339 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF82FE-4F13-4D1B-9DAC-B62E57AFDD8A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39CFEE9-0BE7-4A54-9B9F-D24F3A747B5A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7115867D-C09C-4F42-9DED-655109D9E4EB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C03CF9-1025-478E-BBA4-035AE2AD0605}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45" style="5" customWidth="1"/>
+    <col min="11" max="11" width="167.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45129</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="30" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K16:K27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{E7899A6A-12E5-4C9C-8F21-A63FDF1E87B3}"/>
+    <hyperlink ref="J9" r:id="rId2" display="https://magenta.tensorflow.org/datasets/maestro" xr:uid="{EF58D94F-ED59-414F-922C-6ECA026D8B6D}"/>
+    <hyperlink ref="J12" r:id="rId3" display="http://www.tsi.telecom-paristech.fr/aao/en/2013/07/15/maps-database/" xr:uid="{A1D54D05-58D5-4B30-A321-4B01B7DF2D71}"/>
+    <hyperlink ref="J13" r:id="rId4" display="https://magenta.tensorflow.org/datasets/bach_doodle" xr:uid="{659D952C-BBC5-4728-8283-EBA6E4F13260}"/>
+    <hyperlink ref="J14" r:id="rId5" display="https://midiworld.com/" xr:uid="{CFEBF633-F794-4C5E-AE3A-823DE50C48D6}"/>
+    <hyperlink ref="J15" r:id="rId6" display="https://freemidi.org/" xr:uid="{20661508-175D-45F4-9B0F-842AE38E9F26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AE754-B83B-4E8C-8656-C3C82B771DCB}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02744-2855-4869-A6CC-88BDE704400C}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8190A18B-0111-4379-88D1-B56CD56F3331}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63F65D3-0B38-4925-8E6E-15354D143ABB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA53FB-C3C0-406A-9585-9B64A0E24AD5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{F078DC2D-C738-4528-80BC-263D52A7E2A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References.xlsx
+++ b/References.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848f6c63bb152c52/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi\Thesis\Thesis\Thesis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1026" documentId="8_{E915BA6D-3730-4036-88BC-7FE80E6C9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8129189E-18AF-44D6-B1FB-C53546302813}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B75AA8-8C55-4BE3-AD54-4A45C9C1D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="938" activeTab="3" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="938" activeTab="1" xr2:uid="{013822B6-2DF0-4CC4-AF61-9A32C66E93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Research Papers" sheetId="1" r:id="rId1"/>
-    <sheet name="Sampling" sheetId="12" r:id="rId2"/>
-    <sheet name="Dataset" sheetId="2" r:id="rId3"/>
-    <sheet name="Code" sheetId="6" r:id="rId4"/>
-    <sheet name="Snips of code" sheetId="10" r:id="rId5"/>
-    <sheet name="Data Prep" sheetId="7" r:id="rId6"/>
-    <sheet name="Evaluation of Model" sheetId="9" r:id="rId7"/>
-    <sheet name="GitHub Links" sheetId="8" r:id="rId8"/>
-    <sheet name="People to Interview" sheetId="3" r:id="rId9"/>
-    <sheet name="Problem" sheetId="4" r:id="rId10"/>
-    <sheet name="Questions for interviewees" sheetId="5" r:id="rId11"/>
-    <sheet name="To Do" sheetId="11" r:id="rId12"/>
+    <sheet name="Model Results" sheetId="13" r:id="rId2"/>
+    <sheet name="Sampling" sheetId="12" r:id="rId3"/>
+    <sheet name="Dataset" sheetId="2" r:id="rId4"/>
+    <sheet name="Code" sheetId="6" r:id="rId5"/>
+    <sheet name="Snips of code" sheetId="10" r:id="rId6"/>
+    <sheet name="Data Prep" sheetId="7" r:id="rId7"/>
+    <sheet name="Evaluation of Model" sheetId="9" r:id="rId8"/>
+    <sheet name="GitHub Links" sheetId="8" r:id="rId9"/>
+    <sheet name="People to Interview" sheetId="3" r:id="rId10"/>
+    <sheet name="Problem" sheetId="4" r:id="rId11"/>
+    <sheet name="Questions for interviewees" sheetId="5" r:id="rId12"/>
+    <sheet name="To Do" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Research Papers'!$A$1:$F$76</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="392">
   <si>
     <t>Sequence Tutor: Conservative Fine-Tuning of Sequence Generation Models with KL-control</t>
   </si>
@@ -1656,12 +1657,122 @@
   <si>
     <t>MidiEventProcessor</t>
   </si>
+  <si>
+    <t>Change in Code</t>
+  </si>
+  <si>
+    <t>Name of Music file</t>
+  </si>
+  <si>
+    <t>top_p = 0.2</t>
+  </si>
+  <si>
+    <t>top_p = 0.4</t>
+  </si>
+  <si>
+    <t>top_p = 0.6</t>
+  </si>
+  <si>
+    <t>top_p = 0.8</t>
+  </si>
+  <si>
+    <t>top_p = 1</t>
+  </si>
+  <si>
+    <t>OG POP</t>
+  </si>
+  <si>
+    <t>New POP</t>
+  </si>
+  <si>
+    <t>New Lakh</t>
+  </si>
+  <si>
+    <t>OG Lakh</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>The top_p parameter typically ranges from 0 to 1, where: 
+Setting top_p close to 0 favors high-probability tokens, resulting in more deterministic sampling. 
+Setting top_p close to 1 allows for more diversity in sampling, as a larger portion of the probability mass is considered.</t>
+  </si>
+  <si>
+    <t>olive-frog-9</t>
+  </si>
+  <si>
+    <t>eager-sky-10</t>
+  </si>
+  <si>
+    <t>pleasant-waterfall-11</t>
+  </si>
+  <si>
+    <t>dutiful-universe-12</t>
+  </si>
+  <si>
+    <t>cosmic-field-13</t>
+  </si>
+  <si>
+    <t>n_head = 4</t>
+  </si>
+  <si>
+    <t>n_head = 8</t>
+  </si>
+  <si>
+    <t>temp = 0.25</t>
+  </si>
+  <si>
+    <t>temp = 0.5</t>
+  </si>
+  <si>
+    <t>temp = 0.75</t>
+  </si>
+  <si>
+    <t>temp = 1</t>
+  </si>
+  <si>
+    <t>expert-frost-15</t>
+  </si>
+  <si>
+    <t>exalted-lion-16</t>
+  </si>
+  <si>
+    <t>worthy-lake-17</t>
+  </si>
+  <si>
+    <t>dry-eon-18</t>
+  </si>
+  <si>
+    <t>rural-dawn-20</t>
+  </si>
+  <si>
+    <t>n_head = 2</t>
+  </si>
+  <si>
+    <t>glad-armadillo-22</t>
+  </si>
+  <si>
+    <t>n_head = 1</t>
+  </si>
+  <si>
+    <t>honest-pine-23</t>
+  </si>
+  <si>
+    <t>n_head = 16</t>
+  </si>
+  <si>
+    <t>lucky-frog-24</t>
+  </si>
+  <si>
+    <t>celestial-sky-5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,6 +1813,18 @@
       <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF363A3D"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1765,7 +1888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1844,13 +1967,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1867,10 +2006,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1943,9 +2078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1983,7 +2118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2089,7 +2224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2231,7 +2366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3310,6 +3445,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{F078DC2D-C738-4528-80BC-263D52A7E2A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF5EB5B-A5F3-47FA-8DC8-48A97EC0E439}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3413,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF82FE-4F13-4D1B-9DAC-B62E57AFDD8A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3457,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39CFEE9-0BE7-4A54-9B9F-D24F3A747B5A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3485,6 +3690,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D857E1-E9C2-48B0-AD37-C45B99C60510}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="102.77734375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>1</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="37">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://wandb.ai/musicgen/pop909_musicgen/runs/ljksiqtr" xr:uid="{C64D9017-579A-459F-8346-020F170F666E}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://wandb.ai/musicgen/pop909_musicgen/runs/5ge6hiw0" xr:uid="{E2F3BC7F-4970-4E95-8138-19B21C3D4E15}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://wandb.ai/musicgen/pop909_musicgen/runs/2faujq2g" xr:uid="{A960EACE-B88B-47E0-B46F-F5E15075F306}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://wandb.ai/musicgen/pop909_musicgen/runs/o6ck2xjy" xr:uid="{653BD9FF-064D-4579-8266-92D6C9909ED1}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://wandb.ai/musicgen/pop909_musicgen/runs/3bhxk4r6" xr:uid="{3A49DDEE-0233-4C1B-84D3-AB5405D745B9}"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://wandb.ai/musicgen/pop909_musicgen/runs/7yk0vi05" xr:uid="{2894D6B4-65D8-4D4C-AF00-BA4CA155AEDB}"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://wandb.ai/musicgen/pop909_musicgen/runs/7yk0vi05" xr:uid="{1BE14E16-1654-41D6-B339-CAEE58A0BFEC}"/>
+    <hyperlink ref="C13" r:id="rId8" display="https://wandb.ai/musicgen/pop909_musicgen/runs/ejt0nake" xr:uid="{2F2CCEE4-A5EA-4C0B-A085-84A6A3AFB2FA}"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://wandb.ai/musicgen/pop909_musicgen/runs/x8fvqrcu" xr:uid="{B424FDC3-A3D6-47AC-8500-952672B128DC}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://wandb.ai/musicgen/pop909_musicgen/runs/jv50v2bb" xr:uid="{473DC8EF-D5BE-4D89-BCB4-C6BD4AAB40D9}"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://wandb.ai/musicgen/pop909_musicgen/runs/sthuuznv" xr:uid="{4E1CF60D-C8B3-4ACC-BF9C-E3284BD02482}"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://wandb.ai/musicgen/lmd_musicgen/runs/hj6w92fd" xr:uid="{F9E99611-5A7E-428E-977C-80CDC528C87E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7115867D-C09C-4F42-9DED-655109D9E4EB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3584,7 +4039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C03CF9-1025-478E-BBA4-035AE2AD0605}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -3881,7 +4336,7 @@
       <c r="J16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="30" t="e" vm="1">
+      <c r="K16" s="40" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3892,37 +4347,37 @@
       <c r="B17" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="30"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="30"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="30"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="30"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="30"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="30"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="30"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="30"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="30"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K27" s="30"/>
+      <c r="K27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3940,11 +4395,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AE754-B83B-4E8C-8656-C3C82B771DCB}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
@@ -4041,51 +4496,51 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>279</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:4" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:4" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>351</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -4093,14 +4548,14 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4115,14 +4570,14 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4329,7 +4784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02744-2855-4869-A6CC-88BDE704400C}">
   <dimension ref="A1:A36"/>
   <sheetViews>
@@ -4502,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8190A18B-0111-4379-88D1-B56CD56F3331}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4601,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63F65D3-0B38-4925-8E6E-15354D143ABB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4666,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA53FB-C3C0-406A-9585-9B64A0E24AD5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4676,74 +5131,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006C82-E1A2-41D1-A2D7-BB63F02982B7}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{F078DC2D-C738-4528-80BC-263D52A7E2A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>